--- a/LotteryTracker/Files/LTF.xlsx
+++ b/LotteryTracker/Files/LTF.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="A2:N10"/>
+      <selection activeCell="M5" sqref="A2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
